--- a/export/template/balance-sheet-template.xlsx
+++ b/export/template/balance-sheet-template.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup SAYYID\#TRIPTA\triptatritunggal\export\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Balance Sheet Report ID</t>
   </si>
@@ -182,14 +186,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -216,13 +215,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,19 +519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,6 +655,9 @@
       <c r="M2">
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
       <c r="O2" t="s">
         <v>35</v>
       </c>
@@ -659,7 +670,7 @@
       <c r="R2">
         <v>2</v>
       </c>
-      <c r="S2" t="b">
+      <c r="S2">
         <v>1</v>
       </c>
       <c r="T2" t="s">
@@ -687,7 +698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -727,7 +738,7 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" t="b">
+      <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
@@ -742,6 +753,9 @@
       <c r="R3">
         <v>2</v>
       </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
       <c r="T3" t="s">
         <v>51</v>
       </c>
@@ -768,17 +782,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/export/template/balance-sheet-template.xlsx
+++ b/export/template/balance-sheet-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>Balance Sheet Report ID</t>
   </si>
@@ -102,104 +102,425 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>RPT001</t>
-  </si>
-  <si>
-    <t>ACC001</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>ACC002</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>SUBTRACT</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>MULTIPLY</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Sub</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>2025-01-29 15:29:34</t>
   </si>
   <si>
-    <t>RPT002</t>
-  </si>
-  <si>
-    <t>ACC003</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>ACC004</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>DIVIDE</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>inactive</t>
+    <t>A K T I V A</t>
+  </si>
+  <si>
+    <t>AKTIVA LANCAR</t>
+  </si>
+  <si>
+    <t>Kas dan Setara Kas</t>
+  </si>
+  <si>
+    <t>Piutang Usaha</t>
+  </si>
+  <si>
+    <t>Piutang Lain-lain</t>
+  </si>
+  <si>
+    <t>Biaya Dibayar dimuka</t>
+  </si>
+  <si>
+    <t>Persediaan</t>
+  </si>
+  <si>
+    <t>JUMLAH AKTIVA LANCAR</t>
+  </si>
+  <si>
+    <t>AKTIVA TETAP</t>
+  </si>
+  <si>
+    <t>Inventaris</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan</t>
+  </si>
+  <si>
+    <t>JUMLAH AKTIVA TETAP</t>
+  </si>
+  <si>
+    <t>TOTAL AKTIVA</t>
+  </si>
+  <si>
+    <t>101.01</t>
+  </si>
+  <si>
+    <t>101.01.01</t>
+  </si>
+  <si>
+    <t>101.01.02</t>
+  </si>
+  <si>
+    <t>101.01.03</t>
+  </si>
+  <si>
+    <t>101.01.04</t>
+  </si>
+  <si>
+    <t>101.01.05</t>
+  </si>
+  <si>
+    <t>101.01.06</t>
+  </si>
+  <si>
+    <t>101.01.07</t>
+  </si>
+  <si>
+    <t>101.01.08</t>
+  </si>
+  <si>
+    <t>101.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P A S I V A </t>
+  </si>
+  <si>
+    <t>HUTANG LANCAR</t>
+  </si>
+  <si>
+    <t>Hutang Dagang</t>
+  </si>
+  <si>
+    <t>Hutang Pajak</t>
+  </si>
+  <si>
+    <t>MODAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modal </t>
+  </si>
+  <si>
+    <t>Laba ditahan</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVA</t>
+  </si>
+  <si>
+    <t>201.01</t>
+  </si>
+  <si>
+    <t>201.01.01</t>
+  </si>
+  <si>
+    <t>201.01.02</t>
+  </si>
+  <si>
+    <t>201.01.03</t>
+  </si>
+  <si>
+    <t>201.01.04</t>
+  </si>
+  <si>
+    <t>201.01.05</t>
+  </si>
+  <si>
+    <t>PENJUALAN</t>
+  </si>
+  <si>
+    <t>HARGA POKOK PENJUALAN :</t>
+  </si>
+  <si>
+    <t>Persediaan Awal</t>
+  </si>
+  <si>
+    <t>Pembelian</t>
+  </si>
+  <si>
+    <t>Biaya Kirim Pembelian</t>
+  </si>
+  <si>
+    <t>Barang Tersedia Dijual</t>
+  </si>
+  <si>
+    <t>Persediaan Akhir</t>
+  </si>
+  <si>
+    <t>HARGA POKOK PENJUALAN</t>
+  </si>
+  <si>
+    <t>LABA BRUTO</t>
+  </si>
+  <si>
+    <t>BIAYA - BIAYA USAHA :</t>
+  </si>
+  <si>
+    <t>- Beban Penjualan</t>
+  </si>
+  <si>
+    <t>Biaya Gaji Bag. Penjualan</t>
+  </si>
+  <si>
+    <t>Beban Courier</t>
+  </si>
+  <si>
+    <t>Beban Sewa Mobil</t>
+  </si>
+  <si>
+    <t>Beban Tol</t>
+  </si>
+  <si>
+    <t>Beban Bahan Bakar</t>
+  </si>
+  <si>
+    <t>-Beban Administrasi Umum</t>
+  </si>
+  <si>
+    <t>Beban Gaji Bag. Administrasi dan Umum</t>
+  </si>
+  <si>
+    <t>Beban Perlengkapan Kantor</t>
+  </si>
+  <si>
+    <t>Biaya Depresiasi Peralatan Kantor</t>
+  </si>
+  <si>
+    <t>Beban Sewa Kantor</t>
+  </si>
+  <si>
+    <t>Beban Listrik dan Air</t>
+  </si>
+  <si>
+    <t>Beban Telepon</t>
+  </si>
+  <si>
+    <t>Beban Internet</t>
+  </si>
+  <si>
+    <t>Beban Materai</t>
+  </si>
+  <si>
+    <t>Beban Entertain</t>
+  </si>
+  <si>
+    <t>Beban Tiker Parkir</t>
+  </si>
+  <si>
+    <t>Beban Perbaikan dan Maintenance</t>
+  </si>
+  <si>
+    <t>Beban Komisi Penjualan</t>
+  </si>
+  <si>
+    <t>Biaya Gaji Komisaris</t>
+  </si>
+  <si>
+    <t>Biaya Lain-lain</t>
+  </si>
+  <si>
+    <t>TOTAL BEBAN</t>
+  </si>
+  <si>
+    <t>LABA USAHA</t>
+  </si>
+  <si>
+    <t>PPh</t>
+  </si>
+  <si>
+    <t>LABA USAHA SETELAH PAJAK</t>
+  </si>
+  <si>
+    <t>300.01</t>
+  </si>
+  <si>
+    <t>300.01.01</t>
+  </si>
+  <si>
+    <t>300.01.02</t>
+  </si>
+  <si>
+    <t>300.01.03</t>
+  </si>
+  <si>
+    <t>300.01.04</t>
+  </si>
+  <si>
+    <t>300.01.05</t>
+  </si>
+  <si>
+    <t>300.01.06</t>
+  </si>
+  <si>
+    <t>300.01.07</t>
+  </si>
+  <si>
+    <t>400.01</t>
+  </si>
+  <si>
+    <t>400.01.01</t>
+  </si>
+  <si>
+    <t>400.01.02</t>
+  </si>
+  <si>
+    <t>400.01.03</t>
+  </si>
+  <si>
+    <t>400.01.04</t>
+  </si>
+  <si>
+    <t>400.01.05</t>
+  </si>
+  <si>
+    <t>400.02</t>
+  </si>
+  <si>
+    <t>400.02.01</t>
+  </si>
+  <si>
+    <t>400.02.02</t>
+  </si>
+  <si>
+    <t>400.02.03</t>
+  </si>
+  <si>
+    <t>400.02.04</t>
+  </si>
+  <si>
+    <t>400.02.05</t>
+  </si>
+  <si>
+    <t>400.02.06</t>
+  </si>
+  <si>
+    <t>400.02.07</t>
+  </si>
+  <si>
+    <t>400.02.08</t>
+  </si>
+  <si>
+    <t>400.02.09</t>
+  </si>
+  <si>
+    <t>400.02.10</t>
+  </si>
+  <si>
+    <t>400.02.11</t>
+  </si>
+  <si>
+    <t>400.02.12</t>
+  </si>
+  <si>
+    <t>400.02.13</t>
+  </si>
+  <si>
+    <t>400.02.14</t>
+  </si>
+  <si>
+    <t>400.02.15</t>
+  </si>
+  <si>
+    <t>400.02.16</t>
+  </si>
+  <si>
+    <t>400.02.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2#3#4#5#6#7</t>
+  </si>
+  <si>
+    <t>10#11</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#+</t>
+  </si>
+  <si>
+    <t>2#3#4#5#6#7#10#11</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#+#-#-</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#-#+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-</t>
+  </si>
+  <si>
+    <t>3#4#6#7#10#13#14#15#16#17#23#24#25#26#27#30#31#32#33#34#35#35#36#37#38#39#40#41#42#42#43#47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,#00.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,13 +532,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +657,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,16 +866,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="L36" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="45.5703125" customWidth="1"/>
+    <col min="16" max="16" width="71.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -615,173 +983,3180 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>55</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>55</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>55</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>55</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>29</v>
       </c>
-      <c r="G2">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>55</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>55</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H22">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>55</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>34</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>55</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>55</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>37</v>
       </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>55</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="H28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>55</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>55</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>55</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
+      <c r="H31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>55</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="H32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>55</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>42</v>
       </c>
-      <c r="Y2">
-        <v>201</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>55</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>55</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>55</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>55</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>55</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>55</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>55</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>55</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>55</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>55</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>55</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>53</v>
+      </c>
+      <c r="H44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>55</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="D3">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>55</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>55</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="G3">
-        <v>104</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>55</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>55</v>
+      </c>
+      <c r="H48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>55</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>55</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q50">
+        <v>11</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>55</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>55</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3">
-        <v>202</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>43</v>
-      </c>
-    </row>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>22</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>55</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/export/template/balance-sheet-template.xlsx
+++ b/export/template/balance-sheet-template.xlsx
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L36" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,16 +878,16 @@
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="45.5703125" customWidth="1"/>
     <col min="16" max="16" width="71.5703125" customWidth="1"/>
     <col min="17" max="17" width="17.85546875" customWidth="1"/>

--- a/export/template/balance-sheet-template.xlsx
+++ b/export/template/balance-sheet-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="142">
   <si>
     <t>Balance Sheet Report ID</t>
   </si>
@@ -165,9 +165,6 @@
     <t>101.01.06</t>
   </si>
   <si>
-    <t>101.01.07</t>
-  </si>
-  <si>
     <t>101.01.08</t>
   </si>
   <si>
@@ -439,6 +436,15 @@
   </si>
   <si>
     <t>3#4#6#7#10#13#14#15#16#17#23#24#25#26#27#30#31#32#33#34#35#35#36#37#38#39#40#41#42#42#43#47</t>
+  </si>
+  <si>
+    <t>PPN Masukan</t>
+  </si>
+  <si>
+    <t>PPN Keluaran</t>
+  </si>
+  <si>
+    <t>JUMLAH HUTANG LANCAR</t>
   </si>
 </sst>
 </file>
@@ -868,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,8 +884,8 @@
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
@@ -1009,7 +1015,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1077,10 +1083,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1148,10 +1154,10 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1219,10 +1225,10 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -1290,10 +1296,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -1361,10 +1367,10 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -1432,10 +1438,10 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1497,26 +1503,24 @@
         <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="G9">
         <v>21</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>135</v>
-      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
       <c r="L9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1568,11 +1572,11 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1580,8 +1584,17 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="L10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1637,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -1649,7 +1662,7 @@
         <v>300</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1708,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1779,22 +1792,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -1855,20 +1868,20 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1929,14 +1942,17 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G15">
         <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1998,10 +2014,10 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -2057,10 +2073,10 @@
         <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -2116,10 +2132,10 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -2175,10 +2191,10 @@
         <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2234,10 +2250,10 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2352,7 +2368,7 @@
         <v>400</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2408,10 +2424,10 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2467,10 +2483,10 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q24">
         <v>10</v>
@@ -2526,10 +2542,10 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -2585,10 +2601,10 @@
         <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -2644,10 +2660,10 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -2703,10 +2719,10 @@
         <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -2818,10 +2834,10 @@
         <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2877,10 +2893,10 @@
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -2936,10 +2952,10 @@
         <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -2995,10 +3011,10 @@
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -3054,10 +3070,10 @@
         <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -3113,10 +3129,10 @@
         <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -3172,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -3231,10 +3247,10 @@
         <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -3290,10 +3306,10 @@
         <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -3349,10 +3365,10 @@
         <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q39">
         <v>10</v>
@@ -3408,10 +3424,10 @@
         <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -3467,10 +3483,10 @@
         <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -3526,10 +3542,10 @@
         <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -3585,10 +3601,10 @@
         <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -3644,10 +3660,10 @@
         <v>53</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -3706,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3762,10 +3778,10 @@
         <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3878,10 +3894,10 @@
         <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q48">
         <v>10</v>
@@ -3902,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -3994,16 +4010,16 @@
         <v>56</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -4118,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q52" s="10">
         <v>0</v>
